--- a/datasets/Student Data.xlsx
+++ b/datasets/Student Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan_PC\Desktop\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ivanov_Ivan\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE257AEC-FBD3-4BDA-8C13-597E924548E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DCF301-804F-454C-AC9F-CEF167A43989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t>Address</t>
   </si>
@@ -1226,6 +1226,21 @@
   </si>
   <si>
     <t>CM1 4BP</t>
+  </si>
+  <si>
+    <t>99 Nowhere, Zambia</t>
+  </si>
+  <si>
+    <t>XX00X0X</t>
+  </si>
+  <si>
+    <t>101 Somewhere, England</t>
+  </si>
+  <si>
+    <t>E$1!3AB</t>
+  </si>
+  <si>
+    <t>9 Some Street, Some Road, Scotland</t>
   </si>
 </sst>
 </file>
@@ -1573,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1 B1"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3193,6 +3208,30 @@
         <v>401</v>
       </c>
     </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204">
+        <v>1111111</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/Student Data.xlsx
+++ b/datasets/Student Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ivanov_Ivan\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DCF301-804F-454C-AC9F-CEF167A43989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6387C-1855-4906-A3ED-BD4166CEAA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t>Address</t>
   </si>
@@ -1241,6 +1241,9 @@
   </si>
   <si>
     <t>9 Some Street, Some Road, Scotland</t>
+  </si>
+  <si>
+    <t>A111111</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3228,8 +3231,8 @@
       <c r="A204" t="s">
         <v>406</v>
       </c>
-      <c r="B204">
-        <v>1111111</v>
+      <c r="B204" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
